--- a/data/trans_orig/P0901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E11158B2-F3EB-468A-BE38-7AFF42E0297B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F32F4204-9996-4102-8E08-D98FE5683A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E6594BD3-6153-4FC9-A5FB-D1289CF77E6C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F51C45C-9C7A-4D2F-A103-9921C929B592}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>94,06%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>8,61%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,1147 +197,1153 @@
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>13,68%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>18,7%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>81,3%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>21,45%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
   </si>
   <si>
     <t>78,55%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
+    <t>81,89%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254D3E4B-494D-427D-BB5D-6D333F9B389B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D48151-4207-4EC8-B0E3-0C634B314289}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2726,7 +2732,7 @@
         <v>5681</v>
       </c>
       <c r="N20" s="7">
-        <v>5807189</v>
+        <v>5807190</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>122</v>
@@ -2777,7 +2783,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2812,7 +2818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193EA543-D544-4A64-975A-F79147E94F42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A888EB9-113F-4BC9-9784-67DC5C4C9A6C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,10 +3100,10 @@
         <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -3106,13 +3112,13 @@
         <v>124935</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>184</v>
@@ -3121,13 +3127,13 @@
         <v>199463</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3148,13 @@
         <v>513176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -3157,13 +3163,13 @@
         <v>460210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -3172,13 +3178,13 @@
         <v>973386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3252,13 @@
         <v>128650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -3261,13 +3267,13 @@
         <v>232370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>326</v>
@@ -3276,13 +3282,13 @@
         <v>361021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3303,13 @@
         <v>889297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>730</v>
@@ -3312,13 +3318,13 @@
         <v>799814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -3327,13 +3333,13 @@
         <v>1689110</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3407,13 @@
         <v>73674</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3416,13 +3422,13 @@
         <v>144638</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -3431,13 +3437,13 @@
         <v>218312</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3458,13 @@
         <v>683949</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>573</v>
@@ -3467,13 +3473,13 @@
         <v>632536</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
@@ -3482,13 +3488,13 @@
         <v>1316485</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3562,13 @@
         <v>118263</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
@@ -3571,13 +3577,13 @@
         <v>212564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>311</v>
@@ -3586,13 +3592,13 @@
         <v>330826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3613,13 @@
         <v>829476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>801</v>
@@ -3622,13 +3628,13 @@
         <v>839337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>1602</v>
@@ -3637,13 +3643,13 @@
         <v>1668814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3717,13 @@
         <v>411325</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>687</v>
@@ -3726,13 +3732,13 @@
         <v>742915</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -3741,13 +3747,13 @@
         <v>1154239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3768,13 @@
         <v>3015454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>2611</v>
@@ -3777,13 +3783,13 @@
         <v>2815394</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>5445</v>
@@ -3792,13 +3798,13 @@
         <v>5830849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,7 +3881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8DB506-B809-4DD9-90BC-DA137EA4D29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2849D9-AF1D-46B2-854F-BB91DA4D990F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3898,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +4005,13 @@
         <v>23170</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -4014,13 +4020,13 @@
         <v>24877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4029,13 +4035,13 @@
         <v>48048</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4056,13 @@
         <v>93376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -4065,13 +4071,13 @@
         <v>88483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>183</v>
@@ -4080,13 +4086,13 @@
         <v>181858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4160,13 @@
         <v>64358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4169,13 +4175,13 @@
         <v>134581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -4184,13 +4190,13 @@
         <v>198939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4211,13 @@
         <v>493896</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -4220,13 +4226,13 @@
         <v>424898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4235,13 +4241,13 @@
         <v>918794</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4315,13 @@
         <v>102065</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -4324,13 +4330,13 @@
         <v>186256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>259</v>
@@ -4339,13 +4345,13 @@
         <v>288321</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4372,7 @@
         <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -4375,13 +4381,13 @@
         <v>856657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1669</v>
@@ -4390,13 +4396,13 @@
         <v>1777023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4470,13 @@
         <v>63735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -4479,13 +4485,13 @@
         <v>145365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -4494,13 +4500,13 @@
         <v>209099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4521,13 @@
         <v>695817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -4530,13 +4536,13 @@
         <v>639646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>1244</v>
@@ -4545,7 +4551,7 @@
         <v>1335464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>296</v>
@@ -4622,10 +4628,10 @@
         <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -4634,13 +4640,13 @@
         <v>198239</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -4649,13 +4655,13 @@
         <v>300611</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,7 +4682,7 @@
         <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -4685,13 +4691,13 @@
         <v>845540</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>1629</v>
@@ -4700,10 +4706,10 @@
         <v>1680735</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>313</v>
@@ -4780,7 +4786,7 @@
         <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
         <v>596</v>
@@ -4789,13 +4795,13 @@
         <v>689319</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>942</v>
@@ -4804,13 +4810,13 @@
         <v>1045018</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4831,13 @@
         <v>3038651</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2742</v>
@@ -4840,13 +4846,13 @@
         <v>2855223</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>5627</v>
@@ -4855,13 +4861,13 @@
         <v>5893874</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C3E2B9-9209-4440-B2C0-4C81AAE90923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F534D1-2892-40E4-BE29-DC3D3101C3C5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4961,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5068,13 @@
         <v>24467</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>65</v>
@@ -5077,13 +5083,13 @@
         <v>28604</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -5092,13 +5098,13 @@
         <v>53072</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5119,13 @@
         <v>77515</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5128,13 +5134,13 @@
         <v>101535</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>267</v>
@@ -5143,13 +5149,13 @@
         <v>179050</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5223,13 @@
         <v>76129</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>231</v>
@@ -5232,13 +5238,13 @@
         <v>120295</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>324</v>
@@ -5247,13 +5253,13 @@
         <v>196425</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5274,13 @@
         <v>473116</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>765</v>
@@ -5283,13 +5289,13 @@
         <v>472667</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1283</v>
@@ -5298,13 +5304,13 @@
         <v>945783</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5378,13 @@
         <v>123418</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>351</v>
@@ -5387,13 +5393,13 @@
         <v>213755</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -5402,13 +5408,13 @@
         <v>337174</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5429,13 @@
         <v>915830</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>1163</v>
@@ -5438,13 +5444,13 @@
         <v>844550</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>1995</v>
@@ -5453,13 +5459,13 @@
         <v>1760379</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5533,13 @@
         <v>113716</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>240</v>
@@ -5578,10 +5584,10 @@
         <v>615056</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>392</v>
@@ -5712,13 +5718,13 @@
         <v>395401</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5739,13 @@
         <v>825763</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1185</v>
@@ -5748,13 +5754,13 @@
         <v>892945</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>2030</v>
@@ -5763,13 +5769,13 @@
         <v>1718708</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5843,13 @@
         <v>475644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>1264</v>
@@ -5852,13 +5858,13 @@
         <v>770931</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>1790</v>
@@ -5867,13 +5873,13 @@
         <v>1246575</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,16 +5891,16 @@
         <v>2847</v>
       </c>
       <c r="D20" s="7">
-        <v>2907280</v>
+        <v>2907281</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>4097</v>
@@ -5903,13 +5909,13 @@
         <v>3035278</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>6944</v>
@@ -5918,13 +5924,13 @@
         <v>5942559</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +5942,7 @@
         <v>3373</v>
       </c>
       <c r="D21" s="7">
-        <v>3382924</v>
+        <v>3382925</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P0901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F32F4204-9996-4102-8E08-D98FE5683A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCBF4B9-D2A1-4F29-984F-BE8DA7D339B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F51C45C-9C7A-4D2F-A103-9921C929B592}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF0980B8-B10E-42EF-81F9-53A13866B36F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,28 +77,28 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
   </si>
   <si>
     <t>10,65%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1113 +107,1113 @@
     <t>94,06%</t>
   </si>
   <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
   </si>
   <si>
     <t>89,35%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>8,61%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
   </si>
   <si>
     <t>12,03%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>10,32%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>91,39%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>87,97%</t>
   </si>
   <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>89,68%</t>
   </si>
   <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
   </si>
   <si>
     <t>27,97%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>84,4%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
     <t>81,27%</t>
   </si>
   <si>
@@ -1304,9 +1304,6 @@
     <t>20,25%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
     <t>21,45%</t>
   </si>
   <si>
@@ -1332,9 +1329,6 @@
   </si>
   <si>
     <t>78,55%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
   </si>
   <si>
     <t>82,66%</t>
@@ -1755,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D48151-4207-4EC8-B0E3-0C634B314289}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DC45B7-259A-4843-A196-64CFA22934BA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>178</v>
@@ -2514,13 +2508,13 @@
         <v>188813</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>272</v>
@@ -2529,13 +2523,13 @@
         <v>275651</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2544,13 @@
         <v>855384</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>819</v>
@@ -2565,13 +2559,13 @@
         <v>849799</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1719</v>
@@ -2580,13 +2574,13 @@
         <v>1705183</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,16 +2645,16 @@
         <v>300</v>
       </c>
       <c r="D19" s="7">
-        <v>296418</v>
+        <v>296417</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>530</v>
@@ -2669,13 +2663,13 @@
         <v>552134</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>830</v>
@@ -2684,13 +2678,13 @@
         <v>848551</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2699,13 @@
         <v>2980126</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2767</v>
@@ -2720,13 +2714,13 @@
         <v>2827064</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5681</v>
@@ -2735,13 +2729,13 @@
         <v>5807190</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2747,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2797,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A888EB9-113F-4BC9-9784-67DC5C4C9A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C3ED6C-0D44-43C0-A872-F081C7BB9583}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2942,13 +2936,13 @@
         <v>16209</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2957,13 +2951,13 @@
         <v>28408</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2972,13 +2966,13 @@
         <v>44617</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2987,13 @@
         <v>99556</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -3008,13 +3002,13 @@
         <v>83497</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
@@ -3023,13 +3017,13 @@
         <v>183053</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3097,13 +3091,13 @@
         <v>74528</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -3112,13 +3106,13 @@
         <v>124935</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M7" s="7">
         <v>184</v>
@@ -3127,10 +3121,10 @@
         <v>199463</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>151</v>
@@ -3154,7 +3148,7 @@
         <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -3163,13 +3157,13 @@
         <v>460210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -3178,13 +3172,13 @@
         <v>973386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3246,13 @@
         <v>128650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -3267,13 +3261,13 @@
         <v>232370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>326</v>
@@ -3282,13 +3276,13 @@
         <v>361021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3297,13 @@
         <v>889297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>730</v>
@@ -3318,13 +3312,13 @@
         <v>799814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -3333,13 +3327,13 @@
         <v>1689110</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,13 +3401,13 @@
         <v>73674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
@@ -3422,13 +3416,13 @@
         <v>144638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>196</v>
@@ -3437,13 +3431,13 @@
         <v>218312</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3452,13 @@
         <v>683949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>573</v>
@@ -3473,13 +3467,13 @@
         <v>632536</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1198</v>
@@ -3488,13 +3482,13 @@
         <v>1316485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,13 +3556,13 @@
         <v>118263</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>202</v>
@@ -3577,13 +3571,13 @@
         <v>212564</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>311</v>
@@ -3592,13 +3586,13 @@
         <v>330826</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3607,13 @@
         <v>829476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>801</v>
@@ -3628,13 +3622,13 @@
         <v>839337</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>1602</v>
@@ -3643,13 +3637,13 @@
         <v>1668814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,13 +3711,13 @@
         <v>411325</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>687</v>
@@ -3732,13 +3726,13 @@
         <v>742915</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>1062</v>
@@ -3747,13 +3741,13 @@
         <v>1154239</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3762,13 @@
         <v>3015454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2611</v>
@@ -3783,13 +3777,13 @@
         <v>2815394</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>5445</v>
@@ -3798,13 +3792,13 @@
         <v>5830849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3881,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2849D9-AF1D-46B2-854F-BB91DA4D990F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84030C81-4BC8-4F63-8635-8438B78AE171}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3898,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4005,13 +3999,13 @@
         <v>23170</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -4020,13 +4014,13 @@
         <v>24877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4035,13 +4029,13 @@
         <v>48048</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4050,13 @@
         <v>93376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>85</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -4071,13 +4065,13 @@
         <v>88483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>183</v>
@@ -4086,13 +4080,13 @@
         <v>181858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4154,13 @@
         <v>64358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4175,13 +4169,13 @@
         <v>134581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -4190,13 +4184,13 @@
         <v>198939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,13 +4205,13 @@
         <v>493896</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -4226,13 +4220,13 @@
         <v>424898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4241,13 +4235,13 @@
         <v>918794</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4309,13 @@
         <v>102065</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -4330,13 +4324,13 @@
         <v>186256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>259</v>
@@ -4345,13 +4339,13 @@
         <v>288321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4360,13 @@
         <v>920366</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -4381,13 +4375,13 @@
         <v>856657</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1669</v>
@@ -4396,13 +4390,13 @@
         <v>1777023</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4464,13 @@
         <v>63735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -4485,13 +4479,13 @@
         <v>145365</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -4500,13 +4494,13 @@
         <v>209099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,13 +4515,13 @@
         <v>695817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -4536,13 +4530,13 @@
         <v>639646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1244</v>
@@ -4551,13 +4545,13 @@
         <v>1335464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4625,13 +4619,13 @@
         <v>102371</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -4640,13 +4634,13 @@
         <v>198239</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -4655,13 +4649,13 @@
         <v>300611</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,13 +4670,13 @@
         <v>835196</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -4786,7 +4780,7 @@
         <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>248</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>596</v>
@@ -4795,13 +4789,13 @@
         <v>689319</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>942</v>
@@ -4834,10 +4828,10 @@
         <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>2742</v>
@@ -4846,10 +4840,10 @@
         <v>2855223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>326</v>
@@ -4923,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F534D1-2892-40E4-BE29-DC3D3101C3C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231FC98C-7FFE-47E1-8963-9F9D074473AC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5101,10 +5095,10 @@
         <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +5146,10 @@
         <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>346</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>337174</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5423,13 @@
         <v>915830</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H11" s="7">
         <v>1163</v>
@@ -5444,13 +5438,13 @@
         <v>844550</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>1995</v>
@@ -5459,13 +5453,13 @@
         <v>1760379</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5527,13 @@
         <v>113716</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>240</v>
@@ -5548,13 +5542,13 @@
         <v>150789</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -5563,13 +5557,13 @@
         <v>264504</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,7 +5578,7 @@
         <v>615056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>391</v>
@@ -5861,10 +5855,10 @@
         <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>1790</v>
@@ -5873,13 +5867,13 @@
         <v>1246575</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5888,13 @@
         <v>2907281</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>4097</v>
@@ -5909,13 +5903,13 @@
         <v>3035278</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>430</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>431</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>6944</v>
@@ -5924,13 +5918,13 @@
         <v>5942559</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCBF4B9-D2A1-4F29-984F-BE8DA7D339B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD5D6C2-E2BB-46CD-8488-FE8D1E4EFF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF0980B8-B10E-42EF-81F9-53A13866B36F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA61E118-0229-4794-99C0-C175F7E94C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,1273 +71,1273 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>66,0%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
     <t>9,98%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>90,02%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>16,07%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>83,93%</t>
   </si>
   <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>20,25%</t>
   </si>
   <si>
-    <t>21,45%</t>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
   </si>
   <si>
     <t>85,94%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>78,55%</t>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
   </si>
   <si>
     <t>82,66%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DC45B7-259A-4843-A196-64CFA22934BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D73672-821F-4A32-BF3F-74A692F3DCEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2499,7 +2499,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>178</v>
@@ -2508,13 +2508,13 @@
         <v>188813</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>272</v>
@@ -2523,13 +2523,13 @@
         <v>275651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2544,13 @@
         <v>855384</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>819</v>
@@ -2559,13 +2559,13 @@
         <v>849799</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1719</v>
@@ -2574,13 +2574,13 @@
         <v>1705183</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,16 +2645,16 @@
         <v>300</v>
       </c>
       <c r="D19" s="7">
-        <v>296417</v>
+        <v>296418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>530</v>
@@ -2663,13 +2663,13 @@
         <v>552134</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>830</v>
@@ -2678,13 +2678,13 @@
         <v>848551</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2699,13 @@
         <v>2980126</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>2767</v>
@@ -2714,28 +2714,28 @@
         <v>2827064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>5681</v>
       </c>
       <c r="N20" s="7">
-        <v>5807190</v>
+        <v>5807189</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2747,7 +2747,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2777,7 +2777,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C3ED6C-0D44-43C0-A872-F081C7BB9583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F69DF6-9B28-4529-B9EB-0D10B8D2F88F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2936,13 @@
         <v>16209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2951,13 +2951,13 @@
         <v>28408</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -2966,13 +2966,13 @@
         <v>44617</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>99556</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>73</v>
@@ -3002,13 +3002,13 @@
         <v>83497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>176</v>
@@ -3017,13 +3017,13 @@
         <v>183053</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>74528</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>117</v>
@@ -3106,13 +3106,13 @@
         <v>124935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>184</v>
@@ -3121,13 +3121,13 @@
         <v>199463</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>513176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>434</v>
@@ -3157,13 +3157,13 @@
         <v>460210</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>919</v>
@@ -3172,13 +3172,13 @@
         <v>973386</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3246,13 +3246,13 @@
         <v>128650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>210</v>
@@ -3261,13 +3261,13 @@
         <v>232370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>326</v>
@@ -3276,13 +3276,13 @@
         <v>361021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>889297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>730</v>
@@ -3312,13 +3312,13 @@
         <v>799814</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -3327,13 +3327,13 @@
         <v>1689110</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84030C81-4BC8-4F63-8635-8438B78AE171}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E173EF3-8E56-45C4-94BF-E0FC6BD3080D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4002,10 +4002,10 @@
         <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -4014,13 +4014,13 @@
         <v>24877</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>45</v>
@@ -4029,13 +4029,13 @@
         <v>48048</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4050,13 @@
         <v>93376</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>85</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>92</v>
@@ -4065,13 +4065,13 @@
         <v>88483</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>183</v>
@@ -4080,13 +4080,13 @@
         <v>181858</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4154,13 @@
         <v>64358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>124</v>
@@ -4169,13 +4169,13 @@
         <v>134581</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -4184,13 +4184,13 @@
         <v>198939</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4205,13 @@
         <v>493896</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>427</v>
@@ -4220,13 +4220,13 @@
         <v>424898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>902</v>
@@ -4235,13 +4235,13 @@
         <v>918794</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4309,13 @@
         <v>102065</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -4324,13 +4324,13 @@
         <v>186256</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>259</v>
@@ -4339,13 +4339,13 @@
         <v>288321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4360,13 @@
         <v>920366</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
@@ -4375,13 +4375,13 @@
         <v>856657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>278</v>
+        <v>28</v>
       </c>
       <c r="M11" s="7">
         <v>1669</v>
@@ -4393,10 +4393,10 @@
         <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>153</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>104</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,10 +4482,10 @@
         <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>188</v>
@@ -4494,13 +4494,13 @@
         <v>209099</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4515,13 @@
         <v>695817</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>609</v>
@@ -4530,13 +4530,13 @@
         <v>639646</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>1244</v>
@@ -4545,13 +4545,13 @@
         <v>1335464</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,13 +4619,13 @@
         <v>102371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>164</v>
@@ -4634,13 +4634,13 @@
         <v>198239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>262</v>
@@ -4649,13 +4649,13 @@
         <v>300611</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>304</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4670,13 @@
         <v>835196</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>795</v>
@@ -4685,13 +4685,13 @@
         <v>845540</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>1629</v>
@@ -4700,10 +4700,10 @@
         <v>1680735</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>313</v>
@@ -4795,7 +4795,7 @@
         <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>942</v>
@@ -4804,13 +4804,13 @@
         <v>1045018</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4825,13 @@
         <v>3038651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2742</v>
@@ -4840,13 +4840,13 @@
         <v>2855223</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>5627</v>
@@ -4855,13 +4855,13 @@
         <v>5893874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231FC98C-7FFE-47E1-8963-9F9D074473AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD67608D-66A8-4A86-9C8E-E39FC79B91EE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5062,13 @@
         <v>24467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>65</v>
@@ -5077,13 +5077,13 @@
         <v>28604</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -5092,13 +5092,13 @@
         <v>53072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>147</v>
+        <v>339</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5113,13 @@
         <v>77515</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H5" s="7">
         <v>177</v>
@@ -5128,13 +5128,13 @@
         <v>101535</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>267</v>
@@ -5143,13 +5143,13 @@
         <v>179050</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5217,13 @@
         <v>76129</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H7" s="7">
         <v>231</v>
@@ -5232,13 +5232,13 @@
         <v>120295</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M7" s="7">
         <v>324</v>
@@ -5247,13 +5247,13 @@
         <v>196425</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5268,13 @@
         <v>473116</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>765</v>
@@ -5283,13 +5283,13 @@
         <v>472667</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1283</v>
@@ -5298,13 +5298,13 @@
         <v>945783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5372,13 @@
         <v>123418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>351</v>
@@ -5387,13 +5387,13 @@
         <v>213755</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>483</v>
@@ -5402,13 +5402,13 @@
         <v>337174</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>240</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5423,13 @@
         <v>915830</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>1163</v>
@@ -5438,13 +5438,13 @@
         <v>844550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>1995</v>
@@ -5453,13 +5453,13 @@
         <v>1760379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5527,13 @@
         <v>113716</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>240</v>
@@ -5542,13 +5542,13 @@
         <v>150789</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>354</v>
@@ -5557,13 +5557,13 @@
         <v>264504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,10 +5578,10 @@
         <v>615056</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>391</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>392</v>
@@ -5712,13 +5712,13 @@
         <v>395401</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5733,13 @@
         <v>825763</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>1185</v>
@@ -5748,13 +5748,13 @@
         <v>892945</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>2030</v>
@@ -5763,13 +5763,13 @@
         <v>1718708</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5837,13 @@
         <v>475644</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>1264</v>
@@ -5852,13 +5852,13 @@
         <v>770931</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M19" s="7">
         <v>1790</v>
@@ -5867,13 +5867,13 @@
         <v>1246575</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,16 +5885,16 @@
         <v>2847</v>
       </c>
       <c r="D20" s="7">
-        <v>2907281</v>
+        <v>2907280</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>4097</v>
@@ -5903,13 +5903,13 @@
         <v>3035278</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>6944</v>
@@ -5936,7 +5936,7 @@
         <v>3373</v>
       </c>
       <c r="D21" s="7">
-        <v>3382925</v>
+        <v>3382924</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P0901-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P0901-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AD5D6C2-E2BB-46CD-8488-FE8D1E4EFF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7126137C-6775-4F71-A97E-5D1A0BA6C845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CA61E118-0229-4794-99C0-C175F7E94C6A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D2A72FFB-BA96-422B-AAD6-472A82335200}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="358">
   <si>
     <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1276 +68,1051 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>Población que hizo menos de lo que hubiera querido por problemas físicos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1524,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D73672-821F-4A32-BF3F-74A692F3DCEE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27ECEFF3-E62C-4034-A9F2-F5455D0DD6D0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1642,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="D4" s="7">
-        <v>6847</v>
+        <v>56675</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1657,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I4" s="7">
-        <v>17438</v>
+        <v>86692</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1672,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>146</v>
       </c>
       <c r="N4" s="7">
-        <v>24285</v>
+        <v>143367</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1693,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>99</v>
+        <v>625</v>
       </c>
       <c r="D5" s="7">
-        <v>108511</v>
+        <v>637337</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1708,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>108</v>
+        <v>608</v>
       </c>
       <c r="I5" s="7">
-        <v>95317</v>
+        <v>601659</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1723,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>207</v>
+        <v>1233</v>
       </c>
       <c r="N5" s="7">
-        <v>203828</v>
+        <v>1238996</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1744,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1759,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1774,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7">
-        <v>49828</v>
+        <v>94327</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1812,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="I7" s="7">
-        <v>69254</v>
+        <v>156099</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1827,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>120</v>
+        <v>234</v>
       </c>
       <c r="N7" s="7">
-        <v>119082</v>
+        <v>250426</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1848,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>526</v>
+        <v>805</v>
       </c>
       <c r="D8" s="7">
-        <v>528826</v>
+        <v>867473</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1863,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>500</v>
+        <v>765</v>
       </c>
       <c r="I8" s="7">
-        <v>506342</v>
+        <v>812294</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1878,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1026</v>
+        <v>1570</v>
       </c>
       <c r="N8" s="7">
-        <v>1035168</v>
+        <v>1679767</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1899,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1914,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1929,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +1952,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>94327</v>
+        <v>58578</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +1967,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="I10" s="7">
-        <v>156099</v>
+        <v>120530</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +1982,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="N10" s="7">
-        <v>250426</v>
+        <v>179108</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2228,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>805</v>
+        <v>584</v>
       </c>
       <c r="D11" s="7">
-        <v>867473</v>
+        <v>619931</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2243,10 +2018,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>765</v>
+        <v>575</v>
       </c>
       <c r="I11" s="7">
-        <v>812294</v>
+        <v>563311</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2258,10 +2033,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1570</v>
+        <v>1159</v>
       </c>
       <c r="N11" s="7">
-        <v>1679767</v>
+        <v>1183242</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2279,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2069,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2084,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>58578</v>
+        <v>86838</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2347,10 +2122,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="I13" s="7">
-        <v>120530</v>
+        <v>188813</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2362,10 +2137,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>178</v>
+        <v>272</v>
       </c>
       <c r="N13" s="7">
-        <v>179108</v>
+        <v>275651</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2383,10 +2158,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>584</v>
+        <v>900</v>
       </c>
       <c r="D14" s="7">
-        <v>619931</v>
+        <v>855384</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2398,10 +2173,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>575</v>
+        <v>819</v>
       </c>
       <c r="I14" s="7">
-        <v>563311</v>
+        <v>849799</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2413,10 +2188,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1159</v>
+        <v>1719</v>
       </c>
       <c r="N14" s="7">
-        <v>1183242</v>
+        <v>1705183</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2434,10 +2209,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2224,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2239,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,55 +2256,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>300</v>
+      </c>
+      <c r="D16" s="7">
+        <v>296417</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>530</v>
+      </c>
+      <c r="I16" s="7">
+        <v>552134</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="7">
+        <v>830</v>
+      </c>
+      <c r="N16" s="7">
+        <v>848551</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="7">
-        <v>86838</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="7">
-        <v>178</v>
-      </c>
-      <c r="I16" s="7">
-        <v>188813</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>272</v>
-      </c>
-      <c r="N16" s="7">
-        <v>275651</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2313,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>900</v>
+        <v>2914</v>
       </c>
       <c r="D17" s="7">
-        <v>855384</v>
+        <v>2980126</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2767</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2827063</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>819</v>
-      </c>
-      <c r="I17" s="7">
-        <v>849799</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>5681</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5807190</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1719</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1705183</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2364,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2379,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2394,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2410,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>300</v>
-      </c>
-      <c r="D19" s="7">
-        <v>296418</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>530</v>
-      </c>
-      <c r="I19" s="7">
-        <v>552134</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>830</v>
-      </c>
-      <c r="N19" s="7">
-        <v>848551</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2914</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2980126</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2767</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2827064</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5681</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5807189</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2431,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F69DF6-9B28-4529-B9EB-0D10B8D2F88F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F373AA8-0AFF-441E-B777-2D77F23515BB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2549,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>16209</v>
+        <v>90737</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="I4" s="7">
-        <v>28408</v>
+        <v>153343</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>229</v>
       </c>
       <c r="N4" s="7">
-        <v>44617</v>
+        <v>244080</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2600,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>588</v>
       </c>
       <c r="D5" s="7">
-        <v>99556</v>
+        <v>612732</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>73</v>
+        <v>507</v>
       </c>
       <c r="I5" s="7">
-        <v>83497</v>
+        <v>543707</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>176</v>
+        <v>1095</v>
       </c>
       <c r="N5" s="7">
-        <v>183053</v>
+        <v>1156439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2651,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2666,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2681,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2704,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>74528</v>
+        <v>128650</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="I7" s="7">
-        <v>124935</v>
+        <v>232370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>184</v>
+        <v>326</v>
       </c>
       <c r="N7" s="7">
-        <v>199463</v>
+        <v>361021</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2755,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>485</v>
+        <v>820</v>
       </c>
       <c r="D8" s="7">
-        <v>513176</v>
+        <v>889297</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="H8" s="7">
-        <v>434</v>
+        <v>730</v>
       </c>
       <c r="I8" s="7">
-        <v>460210</v>
+        <v>799814</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>919</v>
+        <v>1550</v>
       </c>
       <c r="N8" s="7">
-        <v>973386</v>
+        <v>1689110</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2821,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2836,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1876</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2050131</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2859,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>128650</v>
+        <v>73674</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="I10" s="7">
-        <v>232370</v>
+        <v>144638</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="N10" s="7">
-        <v>361021</v>
+        <v>218312</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2910,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>820</v>
+        <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>889297</v>
+        <v>683949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>730</v>
+        <v>573</v>
       </c>
       <c r="I11" s="7">
-        <v>799814</v>
+        <v>632536</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1550</v>
+        <v>1198</v>
       </c>
       <c r="N11" s="7">
-        <v>1689110</v>
+        <v>1316485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +2976,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>705</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>777174</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +2991,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1876</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>2050131</v>
+        <v>1534797</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,49 +3014,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7">
-        <v>73674</v>
+        <v>118263</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="I13" s="7">
-        <v>144638</v>
+        <v>212564</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>196</v>
+        <v>311</v>
       </c>
       <c r="N13" s="7">
-        <v>218312</v>
+        <v>330826</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3065,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>625</v>
+        <v>801</v>
       </c>
       <c r="D14" s="7">
-        <v>683949</v>
+        <v>829476</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>573</v>
+        <v>801</v>
       </c>
       <c r="I14" s="7">
-        <v>632536</v>
+        <v>839337</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1198</v>
+        <v>1602</v>
       </c>
       <c r="N14" s="7">
-        <v>1316485</v>
+        <v>1668814</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3116,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>910</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>947739</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3131,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>705</v>
+        <v>1003</v>
       </c>
       <c r="I15" s="7">
-        <v>777174</v>
+        <v>1051901</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3146,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1394</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>1534797</v>
+        <v>1999640</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3163,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>109</v>
+        <v>375</v>
       </c>
       <c r="D16" s="7">
-        <v>118263</v>
+        <v>411325</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>202</v>
+        <v>687</v>
       </c>
       <c r="I16" s="7">
-        <v>212564</v>
+        <v>742915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>311</v>
+        <v>1062</v>
       </c>
       <c r="N16" s="7">
-        <v>330826</v>
+        <v>1154239</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3220,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>801</v>
+        <v>2834</v>
       </c>
       <c r="D17" s="7">
-        <v>829476</v>
+        <v>3015454</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>801</v>
+        <v>2611</v>
       </c>
       <c r="I17" s="7">
-        <v>839337</v>
+        <v>2815394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1602</v>
+        <v>5445</v>
       </c>
       <c r="N17" s="7">
-        <v>1668814</v>
+        <v>5830849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3271,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>910</v>
+        <v>3209</v>
       </c>
       <c r="D18" s="7">
-        <v>947739</v>
+        <v>3426779</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3286,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1003</v>
+        <v>3298</v>
       </c>
       <c r="I18" s="7">
-        <v>1051901</v>
+        <v>3558309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1913</v>
+        <v>6507</v>
       </c>
       <c r="N18" s="7">
-        <v>1999640</v>
+        <v>6985088</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3317,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>375</v>
-      </c>
-      <c r="D19" s="7">
-        <v>411325</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>687</v>
-      </c>
-      <c r="I19" s="7">
-        <v>742915</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1062</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1154239</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2834</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3015454</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2611</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2815394</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5445</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5830849</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3209</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3426779</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3298</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3558309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6507</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6985088</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E173EF3-8E56-45C4-94BF-E0FC6BD3080D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D17E1792-D5D7-4C27-A774-4186A3A3FA8C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3456,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>23170</v>
+        <v>87529</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I4" s="7">
-        <v>24877</v>
+        <v>159458</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="N4" s="7">
-        <v>48048</v>
+        <v>246987</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3507,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>566</v>
       </c>
       <c r="D5" s="7">
-        <v>93376</v>
+        <v>587271</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>92</v>
+        <v>519</v>
       </c>
       <c r="I5" s="7">
-        <v>88483</v>
+        <v>513381</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>183</v>
+        <v>1085</v>
       </c>
       <c r="N5" s="7">
-        <v>181858</v>
+        <v>1100652</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3558,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3573,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3588,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3611,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D7" s="7">
-        <v>64358</v>
+        <v>102065</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="H7" s="7">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="I7" s="7">
-        <v>134581</v>
+        <v>186256</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="M7" s="7">
-        <v>188</v>
+        <v>259</v>
       </c>
       <c r="N7" s="7">
-        <v>198939</v>
+        <v>288321</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3662,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>475</v>
+        <v>850</v>
       </c>
       <c r="D8" s="7">
-        <v>493896</v>
+        <v>920366</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="H8" s="7">
-        <v>427</v>
+        <v>819</v>
       </c>
       <c r="I8" s="7">
-        <v>424898</v>
+        <v>856657</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="M8" s="7">
-        <v>902</v>
+        <v>1669</v>
       </c>
       <c r="N8" s="7">
-        <v>918794</v>
+        <v>1777023</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3713,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3728,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3743,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3766,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>102065</v>
+        <v>63735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="H10" s="7">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="I10" s="7">
-        <v>186256</v>
+        <v>145365</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
       <c r="M10" s="7">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="N10" s="7">
-        <v>288321</v>
+        <v>209099</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>229</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3817,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>850</v>
+        <v>635</v>
       </c>
       <c r="D11" s="7">
-        <v>920366</v>
+        <v>695817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="H11" s="7">
-        <v>819</v>
+        <v>609</v>
       </c>
       <c r="I11" s="7">
-        <v>856657</v>
+        <v>639646</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>237</v>
       </c>
       <c r="M11" s="7">
-        <v>1669</v>
+        <v>1244</v>
       </c>
       <c r="N11" s="7">
-        <v>1777023</v>
+        <v>1335464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>279</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3868,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3883,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3898,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4458,49 +3921,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D13" s="7">
-        <v>63735</v>
+        <v>102371</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="I13" s="7">
-        <v>145365</v>
+        <v>198239</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="N13" s="7">
-        <v>209099</v>
+        <v>300611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +3972,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>635</v>
+        <v>834</v>
       </c>
       <c r="D14" s="7">
-        <v>695817</v>
+        <v>835196</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>609</v>
+        <v>795</v>
       </c>
       <c r="I14" s="7">
-        <v>639646</v>
+        <v>845540</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>1244</v>
+        <v>1629</v>
       </c>
       <c r="N14" s="7">
-        <v>1335464</v>
+        <v>1680735</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4023,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4038,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4070,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="D16" s="7">
-        <v>102371</v>
+        <v>355699</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>164</v>
+        <v>596</v>
       </c>
       <c r="I16" s="7">
-        <v>198239</v>
+        <v>689319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>114</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
-        <v>262</v>
+        <v>942</v>
       </c>
       <c r="N16" s="7">
-        <v>300611</v>
+        <v>1045018</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4127,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>834</v>
+        <v>2885</v>
       </c>
       <c r="D17" s="7">
-        <v>835196</v>
+        <v>3038651</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
-        <v>795</v>
+        <v>2742</v>
       </c>
       <c r="I17" s="7">
-        <v>845540</v>
+        <v>2855223</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>309</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>1629</v>
+        <v>5627</v>
       </c>
       <c r="N17" s="7">
-        <v>1680735</v>
+        <v>5893874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4178,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4193,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4208,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4224,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>346</v>
-      </c>
-      <c r="D19" s="7">
-        <v>355699</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>596</v>
-      </c>
-      <c r="I19" s="7">
-        <v>689319</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>942</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1045018</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2885</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3038651</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2742</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2855223</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5627</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5893874</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4245,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD67608D-66A8-4A86-9C8E-E39FC79B91EE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4513BF66-5738-40DB-B5D9-A92A23958E86}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4262,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4363,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="D4" s="7">
-        <v>24467</v>
+        <v>95153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="I4" s="7">
-        <v>28604</v>
+        <v>138156</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="M4" s="7">
-        <v>93</v>
+        <v>417</v>
       </c>
       <c r="N4" s="7">
-        <v>53072</v>
+        <v>233309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>281</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>340</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4414,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>90</v>
+        <v>608</v>
       </c>
       <c r="D5" s="7">
-        <v>77515</v>
+        <v>539785</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>342</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="H5" s="7">
-        <v>177</v>
+        <v>942</v>
       </c>
       <c r="I5" s="7">
-        <v>101535</v>
+        <v>537056</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="M5" s="7">
-        <v>267</v>
+        <v>1550</v>
       </c>
       <c r="N5" s="7">
-        <v>179050</v>
+        <v>1076841</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>289</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>348</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4465,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>729</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>634938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4480,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>242</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130139</v>
+        <v>675212</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4495,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>360</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232122</v>
+        <v>1310150</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4518,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>93</v>
+        <v>132</v>
       </c>
       <c r="D7" s="7">
-        <v>76129</v>
+        <v>115357</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>292</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" s="7">
         <v>351</v>
       </c>
-      <c r="H7" s="7">
-        <v>231</v>
-      </c>
       <c r="I7" s="7">
-        <v>120295</v>
+        <v>193821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>354</v>
+        <v>297</v>
       </c>
       <c r="M7" s="7">
-        <v>324</v>
+        <v>483</v>
       </c>
       <c r="N7" s="7">
-        <v>196425</v>
+        <v>309178</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>355</v>
+        <v>298</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4569,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>518</v>
+        <v>832</v>
       </c>
       <c r="D8" s="7">
-        <v>473116</v>
+        <v>1077507</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>358</v>
+        <v>301</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="H8" s="7">
-        <v>765</v>
+        <v>1163</v>
       </c>
       <c r="I8" s="7">
-        <v>472667</v>
+        <v>763219</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>362</v>
+        <v>305</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>306</v>
       </c>
       <c r="M8" s="7">
-        <v>1283</v>
+        <v>1995</v>
       </c>
       <c r="N8" s="7">
-        <v>945783</v>
+        <v>1840726</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4620,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549245</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4635,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957040</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4650,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2478</v>
       </c>
       <c r="N9" s="7">
-        <v>1142208</v>
+        <v>2149904</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4673,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D10" s="7">
-        <v>123418</v>
+        <v>106989</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>368</v>
+        <v>311</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>369</v>
+        <v>312</v>
       </c>
       <c r="H10" s="7">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="I10" s="7">
-        <v>213755</v>
+        <v>137827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>371</v>
+        <v>314</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
-        <v>483</v>
+        <v>354</v>
       </c>
       <c r="N10" s="7">
-        <v>337174</v>
+        <v>244817</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>373</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>292</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4724,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>832</v>
+        <v>562</v>
       </c>
       <c r="D11" s="7">
-        <v>915830</v>
+        <v>597691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="H11" s="7">
-        <v>1163</v>
+        <v>807</v>
       </c>
       <c r="I11" s="7">
-        <v>844550</v>
+        <v>795539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
-        <v>1995</v>
+        <v>1369</v>
       </c>
       <c r="N11" s="7">
-        <v>1760379</v>
+        <v>1393229</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4775,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058305</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4805,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2478</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2097553</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,49 +4828,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="D13" s="7">
-        <v>113716</v>
+        <v>131221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>325</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="H13" s="7">
-        <v>240</v>
+        <v>377</v>
       </c>
       <c r="I13" s="7">
-        <v>150789</v>
+        <v>228229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>385</v>
+        <v>327</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>386</v>
+        <v>328</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>387</v>
+        <v>329</v>
       </c>
       <c r="M13" s="7">
-        <v>354</v>
+        <v>536</v>
       </c>
       <c r="N13" s="7">
-        <v>264504</v>
+        <v>359450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>388</v>
+        <v>330</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>389</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>390</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4879,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>562</v>
+        <v>845</v>
       </c>
       <c r="D14" s="7">
-        <v>615056</v>
+        <v>793949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
-        <v>807</v>
+        <v>1185</v>
       </c>
       <c r="I14" s="7">
-        <v>723582</v>
+        <v>866703</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>394</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
-        <v>1369</v>
+        <v>2030</v>
       </c>
       <c r="N14" s="7">
-        <v>1338638</v>
+        <v>1660652</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>396</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4930,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925170</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4945,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1562</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094932</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4960,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2566</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2020102</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +4977,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>159</v>
+        <v>526</v>
       </c>
       <c r="D16" s="7">
-        <v>137914</v>
+        <v>448719</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>399</v>
+        <v>342</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>343</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="H16" s="7">
-        <v>377</v>
+        <v>1264</v>
       </c>
       <c r="I16" s="7">
-        <v>257487</v>
+        <v>698033</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>404</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>536</v>
+        <v>1790</v>
       </c>
       <c r="N16" s="7">
-        <v>395401</v>
+        <v>1146752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>56</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5034,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>845</v>
+        <v>2847</v>
       </c>
       <c r="D17" s="7">
-        <v>825763</v>
+        <v>3008934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>407</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
-        <v>1185</v>
+        <v>4097</v>
       </c>
       <c r="I17" s="7">
-        <v>892945</v>
+        <v>2962517</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>411</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
-        <v>2030</v>
+        <v>6944</v>
       </c>
       <c r="N17" s="7">
-        <v>1718708</v>
+        <v>5971450</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5085,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3373</v>
       </c>
       <c r="D18" s="7">
-        <v>963677</v>
+        <v>3457653</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5100,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1562</v>
+        <v>5361</v>
       </c>
       <c r="I18" s="7">
-        <v>1150432</v>
+        <v>3660550</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5115,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2566</v>
+        <v>8734</v>
       </c>
       <c r="N18" s="7">
-        <v>2114109</v>
+        <v>7118202</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5131,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>526</v>
-      </c>
-      <c r="D19" s="7">
-        <v>475644</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1264</v>
-      </c>
-      <c r="I19" s="7">
-        <v>770931</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1790</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1246575</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2847</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2907280</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4097</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3035278</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6944</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5942559</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3373</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3382924</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5361</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3806209</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7189134</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
